--- a/resource/sido.xlsx
+++ b/resource/sido.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95kim\PycharmProjects\pythonProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\95kim\PycharmProjects\pythonProject2\20141196\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7770AE-BDE0-42DC-8F7E-B10E9512076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83374FB-FB90-486C-8B88-D395E0B5A11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{9C548981-487B-47AD-8E47-43BAA40045A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C548981-487B-47AD-8E47-43BAA40045A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="443">
   <si>
     <t>강남구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2169,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5FC1AE-16ED-4C53-972E-C2DBC401AC35}">
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:F436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2482,6 +2482,12 @@
       <c r="B33" t="s">
         <v>24</v>
       </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -2566,21 +2572,15 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
@@ -2596,15 +2596,15 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>45</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -2644,23 +2644,23 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -2668,23 +2668,23 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
         <v>63</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
         <v>63</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
         <v>63</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
         <v>63</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
         <v>63</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>63</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
         <v>63</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
         <v>63</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
         <v>63</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
         <v>63</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
         <v>63</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
         <v>63</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
         <v>63</v>
@@ -2924,15 +2924,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
         <v>109</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
         <v>109</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
         <v>109</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
         <v>109</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
         <v>109</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
         <v>109</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
         <v>109</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
         <v>109</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
         <v>109</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
         <v>109</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
         <v>109</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
@@ -3068,15 +3068,15 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
         <v>122</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
         <v>122</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
         <v>122</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
         <v>122</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
         <v>122</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
         <v>122</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
         <v>122</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>122</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>122</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
         <v>122</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
         <v>122</v>
@@ -3164,15 +3164,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>142</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>142</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
         <v>142</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
         <v>142</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>142</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>142</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>142</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
         <v>142</v>
@@ -3236,7 +3236,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
         <v>142</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
         <v>142</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
         <v>142</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>142</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
         <v>142</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
         <v>142</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>142</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
         <v>142</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>142</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
         <v>142</v>
@@ -3316,15 +3316,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
         <v>157</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
         <v>157</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
         <v>157</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
         <v>157</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
         <v>157</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
         <v>157</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
         <v>157</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B144" t="s">
         <v>157</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
         <v>157</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
         <v>157</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B147" t="s">
         <v>157</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
         <v>157</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
         <v>157</v>
@@ -3428,15 +3428,15 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
         <v>180</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B152" t="s">
         <v>180</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B153" t="s">
         <v>180</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
         <v>180</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B155" t="s">
         <v>180</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s">
         <v>180</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B157" t="s">
         <v>180</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
         <v>180</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B159" t="s">
         <v>180</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
         <v>180</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B161" t="s">
         <v>180</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
         <v>180</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B163" t="s">
         <v>180</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
         <v>180</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
         <v>180</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B166" t="s">
         <v>180</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B167" t="s">
         <v>180</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
         <v>180</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
         <v>180</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B170" t="s">
         <v>180</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B171" t="s">
         <v>180</v>
@@ -3604,15 +3604,15 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B173" t="s">
         <v>183</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B174" t="s">
         <v>183</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B175" t="s">
         <v>183</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B176" t="s">
         <v>183</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B177" t="s">
         <v>183</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B178" t="s">
         <v>183</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B179" t="s">
         <v>183</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B180" t="s">
         <v>183</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B181" t="s">
         <v>183</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B185" t="s">
         <v>183</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B186" t="s">
         <v>183</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B187" t="s">
         <v>183</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B188" t="s">
         <v>183</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B189" t="s">
         <v>183</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B190" t="s">
         <v>183</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B191" t="s">
         <v>183</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B192" t="s">
         <v>183</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B193" t="s">
         <v>183</v>
@@ -3780,15 +3780,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B194" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B195" t="s">
         <v>223</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B196" t="s">
         <v>223</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B197" t="s">
         <v>223</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B198" t="s">
         <v>223</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B199" t="s">
         <v>223</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B200" t="s">
         <v>223</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
         <v>223</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B202" t="s">
         <v>223</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B203" t="s">
         <v>223</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B204" t="s">
         <v>223</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B205" t="s">
         <v>223</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B206" t="s">
         <v>223</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="B207" t="s">
         <v>223</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="B208" t="s">
         <v>223</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B209" t="s">
         <v>223</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B210" t="s">
         <v>223</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B211" t="s">
         <v>223</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B212" t="s">
         <v>223</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B213" t="s">
         <v>223</v>
@@ -3940,15 +3940,15 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B214" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B215" t="s">
         <v>227</v>
@@ -3956,23 +3956,23 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B218" t="s">
         <v>23</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B219" t="s">
         <v>23</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B220" t="s">
         <v>23</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B221" t="s">
         <v>23</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B222" t="s">
         <v>23</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B223" t="s">
         <v>23</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B224" t="s">
         <v>23</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B225" t="s">
         <v>23</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B226" t="s">
         <v>23</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B227" t="s">
         <v>23</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B228" t="s">
         <v>23</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B229" t="s">
         <v>23</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B230" t="s">
         <v>23</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B231" t="s">
         <v>23</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B232" t="s">
         <v>23</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B233" t="s">
         <v>23</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s">
         <v>23</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B235" t="s">
         <v>23</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B236" t="s">
         <v>23</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B237" t="s">
         <v>23</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B238" t="s">
         <v>23</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B240" t="s">
         <v>23</v>
@@ -4156,27 +4156,39 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B241" t="s">
         <v>23</v>
       </c>
+      <c r="C241" t="s">
+        <v>24</v>
+      </c>
+      <c r="D241" t="s">
+        <v>41</v>
+      </c>
+      <c r="E241" t="s">
+        <v>45</v>
+      </c>
+      <c r="F241" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B242" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D242" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E242" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F242" t="s">
         <v>54</v>
@@ -4184,7 +4196,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B243" t="s">
         <v>24</v>
@@ -4204,27 +4216,15 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B244" t="s">
         <v>24</v>
       </c>
-      <c r="C244" t="s">
-        <v>41</v>
-      </c>
-      <c r="D244" t="s">
-        <v>45</v>
-      </c>
-      <c r="E244" t="s">
-        <v>52</v>
-      </c>
-      <c r="F244" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B245" t="s">
         <v>24</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B246" t="s">
         <v>24</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B247" t="s">
         <v>24</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B248" t="s">
         <v>24</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B249" t="s">
         <v>24</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B250" t="s">
         <v>24</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B251" t="s">
         <v>24</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B252" t="s">
         <v>24</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B253" t="s">
         <v>24</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B254" t="s">
         <v>24</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B255" t="s">
         <v>24</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B256" t="s">
         <v>24</v>
@@ -4320,46 +4320,46 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="C257" t="s">
+        <v>45</v>
+      </c>
+      <c r="D257" t="s">
+        <v>52</v>
+      </c>
+      <c r="E257" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
         <v>41</v>
       </c>
       <c r="C258" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D258" t="s">
-        <v>52</v>
-      </c>
-      <c r="E258" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B259" t="s">
         <v>41</v>
       </c>
-      <c r="C259" t="s">
-        <v>52</v>
-      </c>
-      <c r="D259" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B260" t="s">
         <v>41</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B261" t="s">
         <v>41</v>
@@ -4375,15 +4375,15 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B262" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B263" t="s">
         <v>45</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B264" t="s">
         <v>45</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B265" t="s">
         <v>45</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B266" t="s">
         <v>45</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B267" t="s">
         <v>45</v>
@@ -4423,23 +4423,23 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B268" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B270" t="s">
         <v>54</v>
@@ -4447,23 +4447,23 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B272" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B273" t="s">
         <v>63</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B274" t="s">
         <v>63</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B275" t="s">
         <v>63</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B276" t="s">
         <v>63</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B277" t="s">
         <v>63</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B278" t="s">
         <v>63</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B279" t="s">
         <v>63</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B280" t="s">
         <v>63</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B281" t="s">
         <v>63</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B282" t="s">
         <v>63</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B283" t="s">
         <v>63</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B284" t="s">
         <v>63</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B285" t="s">
         <v>63</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B286" t="s">
         <v>63</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B287" t="s">
         <v>63</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B288" t="s">
         <v>63</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B289" t="s">
         <v>63</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B290" t="s">
         <v>63</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B291" t="s">
         <v>63</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B292" t="s">
         <v>63</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B293" t="s">
         <v>63</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B294" t="s">
         <v>63</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B295" t="s">
         <v>63</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="B296" t="s">
         <v>63</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="B297" t="s">
         <v>63</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B298" t="s">
         <v>63</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B299" t="s">
         <v>63</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B300" t="s">
         <v>63</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B301" t="s">
         <v>63</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B302" t="s">
         <v>63</v>
@@ -4703,15 +4703,15 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B303" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B304" t="s">
         <v>109</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B305" t="s">
         <v>109</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B306" t="s">
         <v>109</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B307" t="s">
         <v>109</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B308" t="s">
         <v>109</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B309" t="s">
         <v>109</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B310" t="s">
         <v>109</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B311" t="s">
         <v>109</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B312" t="s">
         <v>109</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B313" t="s">
         <v>109</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B314" t="s">
         <v>109</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B315" t="s">
         <v>109</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B316" t="s">
         <v>109</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B317" t="s">
         <v>109</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B318" t="s">
         <v>109</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B319" t="s">
         <v>109</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B320" t="s">
         <v>109</v>
@@ -4847,15 +4847,15 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B321" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B322" t="s">
         <v>122</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B323" t="s">
         <v>122</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B324" t="s">
         <v>122</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B325" t="s">
         <v>122</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B326" t="s">
         <v>122</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B327" t="s">
         <v>122</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B328" t="s">
         <v>122</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B329" t="s">
         <v>122</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B330" t="s">
         <v>122</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B331" t="s">
         <v>122</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B332" t="s">
         <v>122</v>
@@ -4943,15 +4943,15 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B333" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B334" t="s">
         <v>142</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B335" t="s">
         <v>142</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B336" t="s">
         <v>142</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B337" t="s">
         <v>142</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B338" t="s">
         <v>142</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B339" t="s">
         <v>142</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B340" t="s">
         <v>142</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B341" t="s">
         <v>142</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B342" t="s">
         <v>142</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B343" t="s">
         <v>142</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B344" t="s">
         <v>142</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B345" t="s">
         <v>142</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B346" t="s">
         <v>142</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B347" t="s">
         <v>142</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B348" t="s">
         <v>142</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B349" t="s">
         <v>142</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B350" t="s">
         <v>142</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B351" t="s">
         <v>142</v>
@@ -5095,15 +5095,15 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B352" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B353" t="s">
         <v>157</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B354" t="s">
         <v>157</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B355" t="s">
         <v>157</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B356" t="s">
         <v>157</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B357" t="s">
         <v>157</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B358" t="s">
         <v>157</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B359" t="s">
         <v>157</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B360" t="s">
         <v>157</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B361" t="s">
         <v>157</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B362" t="s">
         <v>157</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B363" t="s">
         <v>157</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B364" t="s">
         <v>157</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B365" t="s">
         <v>157</v>
@@ -5207,15 +5207,15 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B366" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B367" t="s">
         <v>180</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B368" t="s">
         <v>180</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B369" t="s">
         <v>180</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B370" t="s">
         <v>180</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B371" t="s">
         <v>180</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B372" t="s">
         <v>180</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B373" t="s">
         <v>180</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B374" t="s">
         <v>180</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B375" t="s">
         <v>180</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B376" t="s">
         <v>180</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B377" t="s">
         <v>180</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B378" t="s">
         <v>180</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B379" t="s">
         <v>180</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B380" t="s">
         <v>180</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B381" t="s">
         <v>180</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B382" t="s">
         <v>180</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B383" t="s">
         <v>180</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B384" t="s">
         <v>180</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B385" t="s">
         <v>180</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B386" t="s">
         <v>180</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B387" t="s">
         <v>180</v>
@@ -5383,15 +5383,15 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B388" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B389" t="s">
         <v>183</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B390" t="s">
         <v>183</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B391" t="s">
         <v>183</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B392" t="s">
         <v>183</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B393" t="s">
         <v>183</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B394" t="s">
         <v>183</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B395" t="s">
         <v>183</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B396" t="s">
         <v>183</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B397" t="s">
         <v>183</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B398" t="s">
         <v>183</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B399" t="s">
         <v>183</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B400" t="s">
         <v>183</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B401" t="s">
         <v>183</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B402" t="s">
         <v>183</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B403" t="s">
         <v>183</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B404" t="s">
         <v>183</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B405" t="s">
         <v>183</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B406" t="s">
         <v>183</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B407" t="s">
         <v>183</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B408" t="s">
         <v>183</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B409" t="s">
         <v>183</v>
@@ -5559,15 +5559,15 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B410" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B411" t="s">
         <v>223</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B412" t="s">
         <v>223</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B413" t="s">
         <v>223</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B414" t="s">
         <v>223</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B415" t="s">
         <v>223</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B416" t="s">
         <v>223</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B417" t="s">
         <v>223</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B418" t="s">
         <v>223</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B419" t="s">
         <v>223</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B420" t="s">
         <v>223</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B421" t="s">
         <v>223</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B422" t="s">
         <v>223</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>429</v>
+        <v>326</v>
       </c>
       <c r="B423" t="s">
         <v>223</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="B424" t="s">
         <v>223</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B425" t="s">
         <v>223</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B426" t="s">
         <v>223</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B427" t="s">
         <v>223</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B428" t="s">
         <v>223</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B429" t="s">
         <v>223</v>
@@ -5719,15 +5719,15 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B430" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B431" t="s">
         <v>227</v>
@@ -5735,33 +5735,25 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B432" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B433" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B434" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
-        <v>439</v>
-      </c>
-      <c r="B435" t="s">
         <v>142</v>
       </c>
     </row>
